--- a/bp_for_qoe/static/1.xlsx
+++ b/bp_for_qoe/static/1.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -39,25 +39,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,39 +60,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,6 +82,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -132,21 +122,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,16 +152,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +169,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +192,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,25 +312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,49 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,31 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,55 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,32 +386,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,17 +445,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,15 +483,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -491,10 +491,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -503,133 +503,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -990,3411 +990,1711 @@
   <sheetPr/>
   <dimension ref="A1:E1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="$A31:$XFD200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1">
+        <v>10787</v>
+      </c>
+      <c r="B1" s="1">
+        <v>7995044</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>18087</v>
+      </c>
+      <c r="E1" s="1">
         <v>4.882</v>
-      </c>
-      <c r="B1" s="1">
-        <v>10787</v>
-      </c>
-      <c r="C1" s="1">
-        <v>7995044</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>18087</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>25648</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2499315</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25336</v>
+      </c>
+      <c r="E2" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B2" s="1">
-        <v>25648</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2499315</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25336</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>10487</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7994514</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>21961</v>
+      </c>
+      <c r="E3" s="1">
         <v>4.883</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10487</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7994514</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>21961</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
+        <v>18443</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8008308</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>22056</v>
+      </c>
+      <c r="E4" s="1">
         <v>4.886</v>
-      </c>
-      <c r="B4" s="1">
-        <v>18443</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8008308</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>22056</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>26199</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2500035</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25316</v>
+      </c>
+      <c r="E5" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B5" s="1">
-        <v>26199</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2500035</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>25316</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
+        <v>25662</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2496969</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>25356</v>
+      </c>
+      <c r="E6" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B6" s="1">
-        <v>25662</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2496969</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25356</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
+        <v>10913</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7999388</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17983</v>
+      </c>
+      <c r="E7" s="1">
         <v>4.883</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10913</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7999388</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17983</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
+        <v>10574</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7948119</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>22025</v>
+      </c>
+      <c r="E8" s="1">
         <v>4.88</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10574</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7948119</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>22025</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
+        <v>10583</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7996179</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22156</v>
+      </c>
+      <c r="E9" s="1">
         <v>4.883</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10583</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7996179</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>22156</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
+        <v>26199</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2499865</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25316</v>
+      </c>
+      <c r="E10" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B10" s="1">
-        <v>26199</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2499865</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>25316</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
+        <v>10922</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7998760</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>22079</v>
+      </c>
+      <c r="E11" s="1">
         <v>4.882</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10922</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7998760</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>22079</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
+        <v>10920</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7998592</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17913</v>
+      </c>
+      <c r="E12" s="1">
         <v>4.883</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10920</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7998592</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>17913</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
+        <v>10713</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7998864</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18161</v>
+      </c>
+      <c r="E13" s="1">
         <v>4.883</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10713</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7998864</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>18161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
+        <v>14225</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7992072</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>21586</v>
+      </c>
+      <c r="E14" s="1">
         <v>4.883</v>
-      </c>
-      <c r="B14" s="1">
-        <v>14225</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7992072</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>21586</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
+        <v>10641</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7983604</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17962</v>
+      </c>
+      <c r="E15" s="1">
         <v>4.882</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10641</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7983604</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.002</v>
-      </c>
-      <c r="E15" s="1">
-        <v>17962</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
+        <v>26762</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2498779</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>25280</v>
+      </c>
+      <c r="E16" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B16" s="1">
-        <v>26762</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2498779</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>25280</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
+        <v>14217</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7978045</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>21823</v>
+      </c>
+      <c r="E17" s="1">
         <v>4.884</v>
-      </c>
-      <c r="B17" s="1">
-        <v>14217</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7978045</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>21823</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
+        <v>10704</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7941210</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="D18" s="1">
+        <v>22480</v>
+      </c>
+      <c r="E18" s="1">
         <v>4.88</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10704</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7941210</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.003</v>
-      </c>
-      <c r="E18" s="1">
-        <v>22480</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
+        <v>25913</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2498079</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25343</v>
+      </c>
+      <c r="E19" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B19" s="1">
-        <v>25913</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2498079</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>25343</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
+        <v>10568</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7997100</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18028</v>
+      </c>
+      <c r="E20" s="1">
         <v>4.882</v>
-      </c>
-      <c r="B20" s="1">
-        <v>10568</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7997100</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>18028</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
+        <v>21608</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2475746</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1975</v>
+      </c>
+      <c r="E21" s="1">
         <v>4.555</v>
-      </c>
-      <c r="B21" s="1">
-        <v>21608</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2475746</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1975</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
+        <v>16054</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2499425</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1879</v>
+      </c>
+      <c r="E22" s="1">
         <v>4.553</v>
-      </c>
-      <c r="B22" s="1">
-        <v>16054</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2499425</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1879</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
+        <v>10977</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7941389</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>17651</v>
+      </c>
+      <c r="E23" s="1">
         <v>4.88</v>
-      </c>
-      <c r="B23" s="1">
-        <v>10977</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7941389</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>17651</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
+        <v>25678</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2497851</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>25323</v>
+      </c>
+      <c r="E24" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B24" s="1">
-        <v>25678</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2497851</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>25323</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
+        <v>16457</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2497356</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1932</v>
+      </c>
+      <c r="E25" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B25" s="1">
-        <v>16457</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2497356</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1932</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
+        <v>26300</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2499142</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25329</v>
+      </c>
+      <c r="E26" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B26" s="1">
-        <v>26300</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2499142</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>25329</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
+        <v>16052</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2499102</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1887</v>
+      </c>
+      <c r="E27" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B27" s="1">
-        <v>16052</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2499102</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1887</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
+        <v>15141</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7988491</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20869</v>
+      </c>
+      <c r="E28" s="1">
         <v>4.878</v>
-      </c>
-      <c r="B28" s="1">
-        <v>15141</v>
-      </c>
-      <c r="C28" s="1">
-        <v>7988491</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>20869</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
+        <v>26233</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2499505</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>25327</v>
+      </c>
+      <c r="E29" s="1">
         <v>4.554</v>
-      </c>
-      <c r="B29" s="1">
-        <v>26233</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2499505</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>25327</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
+        <v>10835</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5996953</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>19541</v>
+      </c>
+      <c r="E30" s="1">
         <v>4.811</v>
       </c>
-      <c r="B30" s="1">
-        <v>10835</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5996953</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>19541</v>
-      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B31" s="1">
-        <v>25790</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2499634</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>25345</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>4.555</v>
-      </c>
-      <c r="B32" s="1">
-        <v>18019</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2498419</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1867</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B33" s="1">
-        <v>10658</v>
-      </c>
-      <c r="C33" s="1">
-        <v>7990341</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>21983</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B34" s="1">
-        <v>10748</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7997874</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.002</v>
-      </c>
-      <c r="E34" s="1">
-        <v>21814</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B35" s="1">
-        <v>25756</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2498858</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>25338</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B36" s="1">
-        <v>10565</v>
-      </c>
-      <c r="C36" s="1">
-        <v>7998894</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.002</v>
-      </c>
-      <c r="E36" s="1">
-        <v>21707</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B37" s="1">
-        <v>26194</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2499807</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>25314</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>4.878</v>
-      </c>
-      <c r="B38" s="1">
-        <v>20040</v>
-      </c>
-      <c r="C38" s="1">
-        <v>7958904</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>22530</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>4.884</v>
-      </c>
-      <c r="B39" s="1">
-        <v>11368</v>
-      </c>
-      <c r="C39" s="1">
-        <v>7999922</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>17946</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="B40" s="1">
-        <v>16170</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8009702</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>20905</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>4.811</v>
-      </c>
-      <c r="B41" s="1">
-        <v>11036</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5997439</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>19431</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>4.553</v>
-      </c>
-      <c r="B42" s="1">
-        <v>25590</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2499309</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>25282</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B43" s="1">
-        <v>10719</v>
-      </c>
-      <c r="C43" s="1">
-        <v>7995176</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>18163</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B44" s="1">
-        <v>10968</v>
-      </c>
-      <c r="C44" s="1">
-        <v>7998325</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>17927</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B45" s="1">
-        <v>10824</v>
-      </c>
-      <c r="C45" s="1">
-        <v>7967462</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>17787</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B46" s="1">
-        <v>10567</v>
-      </c>
-      <c r="C46" s="1">
-        <v>7999707</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>22006</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B47" s="1">
-        <v>10499</v>
-      </c>
-      <c r="C47" s="1">
-        <v>7988834</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>18487</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B48" s="1">
-        <v>15999</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2499379</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1907</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B49" s="1">
-        <v>25580</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2499492</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>25336</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B50" s="1">
-        <v>10637</v>
-      </c>
-      <c r="C50" s="1">
-        <v>7996453</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>22004</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B51" s="1">
-        <v>16041</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2499909</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1890</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B52" s="1">
-        <v>15971</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2499784</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1885</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B53" s="1">
-        <v>10859</v>
-      </c>
-      <c r="C53" s="1">
-        <v>7999756</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>18175</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B54" s="1">
-        <v>26270</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2499761</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>25331</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B55" s="1">
-        <v>10784</v>
-      </c>
-      <c r="C55" s="1">
-        <v>7998151</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>21995</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B56" s="1">
-        <v>10779</v>
-      </c>
-      <c r="C56" s="1">
-        <v>7999494</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>22026</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>4.81</v>
-      </c>
-      <c r="B57" s="1">
-        <v>10962</v>
-      </c>
-      <c r="C57" s="1">
-        <v>5998543</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>19515</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>4.551</v>
-      </c>
-      <c r="B58" s="1">
-        <v>26180</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2494880</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="E58" s="1">
-        <v>25309</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B59" s="1">
-        <v>26013</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2499098</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>25327</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B60" s="1">
-        <v>14528</v>
-      </c>
-      <c r="C60" s="1">
-        <v>7999152</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>21388</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B61" s="1">
-        <v>26168</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2498969</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>25340</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>4.811</v>
-      </c>
-      <c r="B62" s="1">
-        <v>10842</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5998759</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>19406</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>4.887</v>
-      </c>
-      <c r="B63" s="1">
-        <v>11404</v>
-      </c>
-      <c r="C63" s="1">
-        <v>7902144</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>21725</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>4.875</v>
-      </c>
-      <c r="B64" s="1">
-        <v>18716</v>
-      </c>
-      <c r="C64" s="1">
-        <v>7884798</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1">
-        <v>21940</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B65" s="1">
-        <v>16133</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2499926</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1888</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B66" s="1">
-        <v>10703</v>
-      </c>
-      <c r="C66" s="1">
-        <v>7996511</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1">
-        <v>21968</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>4.553</v>
-      </c>
-      <c r="B67" s="1">
-        <v>26259</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2495204</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1">
-        <v>25283</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>4.881</v>
-      </c>
-      <c r="B68" s="1">
-        <v>10915</v>
-      </c>
-      <c r="C68" s="1">
-        <v>7997042</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="E68" s="1">
-        <v>21927</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B69" s="1">
-        <v>10759</v>
-      </c>
-      <c r="C69" s="1">
-        <v>7986578</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1">
-        <v>21885</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B70" s="1">
-        <v>10577</v>
-      </c>
-      <c r="C70" s="1">
-        <v>7999042</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1">
-        <v>22043</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B71" s="1">
-        <v>25747</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2499239</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1">
-        <v>25342</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>4.877</v>
-      </c>
-      <c r="B72" s="1">
-        <v>19949</v>
-      </c>
-      <c r="C72" s="1">
-        <v>7987294</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="E72" s="1">
-        <v>21916</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>4.551</v>
-      </c>
-      <c r="B73" s="1">
-        <v>26173</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2486902</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1">
-        <v>25297</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B74" s="1">
-        <v>25781</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2500039</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1">
-        <v>25321</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B75" s="1">
-        <v>10670</v>
-      </c>
-      <c r="C75" s="1">
-        <v>7998529</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>18090</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>4.509</v>
-      </c>
-      <c r="B76" s="1">
-        <v>39921</v>
-      </c>
-      <c r="C76" s="1">
-        <v>2439337</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1">
-        <v>25244</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B77" s="1">
-        <v>26086</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2499428</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="E77" s="1">
-        <v>25316</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>4.544</v>
-      </c>
-      <c r="B78" s="1">
-        <v>29075</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2485060</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>25328</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B79" s="1">
-        <v>10600</v>
-      </c>
-      <c r="C79" s="1">
-        <v>7988605</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>21153</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B80" s="1">
-        <v>14059</v>
-      </c>
-      <c r="C80" s="1">
-        <v>7996296</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
-        <v>21449</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B81" s="1">
-        <v>26197</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2498576</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1">
-        <v>25348</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B82" s="1">
-        <v>19158</v>
-      </c>
-      <c r="C82" s="1">
-        <v>7997033</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1">
-        <v>22023</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B83" s="1">
-        <v>26221</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2499845</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1">
-        <v>25310</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B84" s="1">
-        <v>10825</v>
-      </c>
-      <c r="C84" s="1">
-        <v>7999434</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1">
-        <v>18148</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B85" s="1">
-        <v>14042</v>
-      </c>
-      <c r="C85" s="1">
-        <v>7997822</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1">
-        <v>21437</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B86" s="1">
-        <v>10620</v>
-      </c>
-      <c r="C86" s="1">
-        <v>7996484</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0</v>
-      </c>
-      <c r="E86" s="1">
-        <v>21947</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B87" s="1">
-        <v>10623</v>
-      </c>
-      <c r="C87" s="1">
-        <v>7998403</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0</v>
-      </c>
-      <c r="E87" s="1">
-        <v>22007</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>4.586</v>
-      </c>
-      <c r="B88" s="1">
-        <v>15028</v>
-      </c>
-      <c r="C88" s="1">
-        <v>976998</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1">
-        <v>24314</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>4.622</v>
-      </c>
-      <c r="B89" s="1">
-        <v>25463</v>
-      </c>
-      <c r="C89" s="1">
-        <v>826448</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1">
-        <v>25443</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="1">
-        <v>4.556</v>
-      </c>
-      <c r="B90" s="1">
-        <v>25057</v>
-      </c>
-      <c r="C90" s="1">
-        <v>2461822</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1">
-        <v>25245</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="1">
-        <v>4.59</v>
-      </c>
-      <c r="B91" s="1">
-        <v>17390</v>
-      </c>
-      <c r="C91" s="1">
-        <v>282676</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.137</v>
-      </c>
-      <c r="E91" s="1">
-        <v>24293</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="1">
-        <v>4.528</v>
-      </c>
-      <c r="B92" s="1">
-        <v>22732</v>
-      </c>
-      <c r="C92" s="1">
-        <v>2128761</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1">
-        <v>24573</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="1">
-        <v>4.54</v>
-      </c>
-      <c r="B93" s="1">
-        <v>27394</v>
-      </c>
-      <c r="C93" s="1">
-        <v>539033</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.195</v>
-      </c>
-      <c r="E93" s="1">
-        <v>25340</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>4.649</v>
-      </c>
-      <c r="B94" s="1">
-        <v>12782</v>
-      </c>
-      <c r="C94" s="1">
-        <v>549561</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1">
-        <v>25334</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="B95" s="1">
-        <v>10521</v>
-      </c>
-      <c r="C95" s="1">
-        <v>3570571</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1">
-        <v>22139</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>4.919</v>
-      </c>
-      <c r="B96" s="1">
-        <v>2707</v>
-      </c>
-      <c r="C96" s="1">
-        <v>2034009</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1">
-        <v>15939</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="1">
-        <v>4.813</v>
-      </c>
-      <c r="B97" s="1">
-        <v>3755</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1800288</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1">
-        <v>23332</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B98" s="1">
-        <v>26204</v>
-      </c>
-      <c r="C98" s="1">
-        <v>2497878</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1">
-        <v>25313</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B99" s="1">
-        <v>10803</v>
-      </c>
-      <c r="C99" s="1">
-        <v>7998266</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1">
-        <v>21977</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B100" s="1">
-        <v>10827</v>
-      </c>
-      <c r="C100" s="1">
-        <v>7999452</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <v>18130</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="1">
-        <v>4.553</v>
-      </c>
-      <c r="B101" s="1">
-        <v>19410</v>
-      </c>
-      <c r="C101" s="1">
-        <v>2497825</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1">
-        <v>2089</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B102" s="1">
-        <v>10841</v>
-      </c>
-      <c r="C102" s="1">
-        <v>7997932</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
-        <v>18125</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B103" s="1">
-        <v>10435</v>
-      </c>
-      <c r="C103" s="1">
-        <v>7998156</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1">
-        <v>18117</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>4.55</v>
-      </c>
-      <c r="B104" s="1">
-        <v>25580</v>
-      </c>
-      <c r="C104" s="1">
-        <v>2411325</v>
-      </c>
-      <c r="D104" s="1">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1">
-        <v>25496</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="1">
-        <v>4.758</v>
-      </c>
-      <c r="B105" s="1">
-        <v>11339</v>
-      </c>
-      <c r="C105" s="1">
-        <v>5837249</v>
-      </c>
-      <c r="D105" s="1">
-        <v>0.016</v>
-      </c>
-      <c r="E105" s="1">
-        <v>21661</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="1">
-        <v>4.539</v>
-      </c>
-      <c r="B106" s="1">
-        <v>33432</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1250726</v>
-      </c>
-      <c r="D106" s="1">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1">
-        <v>25381</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="1">
-        <v>4.562</v>
-      </c>
-      <c r="B107" s="1">
-        <v>26369</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1223353</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1">
-        <v>25714</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="1">
-        <v>4.615</v>
-      </c>
-      <c r="B108" s="1">
-        <v>22725</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1142288</v>
-      </c>
-      <c r="D108" s="1">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1">
-        <v>25499</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B109" s="1">
-        <v>25321</v>
-      </c>
-      <c r="C109" s="1">
-        <v>2480257</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1">
-        <v>25287</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="1">
-        <v>4.553</v>
-      </c>
-      <c r="B110" s="1">
-        <v>26058</v>
-      </c>
-      <c r="C110" s="1">
-        <v>2498785</v>
-      </c>
-      <c r="D110" s="1">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1">
-        <v>25311</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B111" s="1">
-        <v>10935</v>
-      </c>
-      <c r="C111" s="1">
-        <v>7999343</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1">
-        <v>17971</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B112" s="1">
-        <v>26256</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2499595</v>
-      </c>
-      <c r="D112" s="1">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1">
-        <v>25323</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B113" s="1">
-        <v>26086</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2499181</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1">
-        <v>25326</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B114" s="1">
-        <v>10613</v>
-      </c>
-      <c r="C114" s="1">
-        <v>7970563</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1">
-        <v>21999</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="1">
-        <v>4.81</v>
-      </c>
-      <c r="B115" s="1">
-        <v>10821</v>
-      </c>
-      <c r="C115" s="1">
-        <v>5998134</v>
-      </c>
-      <c r="D115" s="1">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1">
-        <v>19487</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B116" s="1">
-        <v>23175</v>
-      </c>
-      <c r="C116" s="1">
-        <v>2499418</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1">
-        <v>1899</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="1">
-        <v>4.555</v>
-      </c>
-      <c r="B117" s="1">
-        <v>25958</v>
-      </c>
-      <c r="C117" s="1">
-        <v>2496659</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1">
-        <v>25331</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B118" s="1">
-        <v>10910</v>
-      </c>
-      <c r="C118" s="1">
-        <v>7998315</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1">
-        <v>17954</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B119" s="1">
-        <v>14038</v>
-      </c>
-      <c r="C119" s="1">
-        <v>7998765</v>
-      </c>
-      <c r="D119" s="1">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1">
-        <v>21421</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B120" s="1">
-        <v>26075</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2498702</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0</v>
-      </c>
-      <c r="E120" s="1">
-        <v>25354</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B121" s="1">
-        <v>10818</v>
-      </c>
-      <c r="C121" s="1">
-        <v>7998179</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0</v>
-      </c>
-      <c r="E121" s="1">
-        <v>21946</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B122" s="1">
-        <v>10832</v>
-      </c>
-      <c r="C122" s="1">
-        <v>7999282</v>
-      </c>
-      <c r="D122" s="1">
-        <v>0</v>
-      </c>
-      <c r="E122" s="1">
-        <v>22052</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="1">
-        <v>4.876</v>
-      </c>
-      <c r="B123" s="1">
-        <v>11730</v>
-      </c>
-      <c r="C123" s="1">
-        <v>8000146</v>
-      </c>
-      <c r="D123" s="1">
-        <v>0</v>
-      </c>
-      <c r="E123" s="1">
-        <v>18476</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="1">
-        <v>4.796</v>
-      </c>
-      <c r="B124" s="1">
-        <v>14727</v>
-      </c>
-      <c r="C124" s="1">
-        <v>7999255</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0.011</v>
-      </c>
-      <c r="E124" s="1">
-        <v>19945</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="1">
-        <v>4.851</v>
-      </c>
-      <c r="B125" s="1">
-        <v>13084</v>
-      </c>
-      <c r="C125" s="1">
-        <v>8000227</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0</v>
-      </c>
-      <c r="E125" s="1">
-        <v>19228</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="1">
-        <v>4.88</v>
-      </c>
-      <c r="B126" s="1">
-        <v>10767</v>
-      </c>
-      <c r="C126" s="1">
-        <v>8000105</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0.002</v>
-      </c>
-      <c r="E126" s="1">
-        <v>21263</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B127" s="1">
-        <v>10946</v>
-      </c>
-      <c r="C127" s="1">
-        <v>7999881</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0</v>
-      </c>
-      <c r="E127" s="1">
-        <v>17979</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="1">
-        <v>4.559</v>
-      </c>
-      <c r="B128" s="1">
-        <v>16429</v>
-      </c>
-      <c r="C128" s="1">
-        <v>2472254</v>
-      </c>
-      <c r="D128" s="1">
-        <v>0</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1912</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="1">
-        <v>4.587</v>
-      </c>
-      <c r="B129" s="1">
-        <v>8676</v>
-      </c>
-      <c r="C129" s="1">
-        <v>497974</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0</v>
-      </c>
-      <c r="E129" s="1">
-        <v>25478</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="1">
-        <v>4.81</v>
-      </c>
-      <c r="B130" s="1">
-        <v>10827</v>
-      </c>
-      <c r="C130" s="1">
-        <v>5992328</v>
-      </c>
-      <c r="D130" s="1">
-        <v>0</v>
-      </c>
-      <c r="E130" s="1">
-        <v>19461</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B131" s="1">
-        <v>10644</v>
-      </c>
-      <c r="C131" s="1">
-        <v>7998704</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0</v>
-      </c>
-      <c r="E131" s="1">
-        <v>18078</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B132" s="1">
-        <v>26179</v>
-      </c>
-      <c r="C132" s="1">
-        <v>2499314</v>
-      </c>
-      <c r="D132" s="1">
-        <v>0</v>
-      </c>
-      <c r="E132" s="1">
-        <v>25321</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B133" s="1">
-        <v>15872</v>
-      </c>
-      <c r="C133" s="1">
-        <v>2499535</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1884</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B134" s="1">
-        <v>10820</v>
-      </c>
-      <c r="C134" s="1">
-        <v>7998623</v>
-      </c>
-      <c r="D134" s="1">
-        <v>0</v>
-      </c>
-      <c r="E134" s="1">
-        <v>21986</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="1">
-        <v>4.885</v>
-      </c>
-      <c r="B135" s="1">
-        <v>10804</v>
-      </c>
-      <c r="C135" s="1">
-        <v>8008096</v>
-      </c>
-      <c r="D135" s="1">
-        <v>0</v>
-      </c>
-      <c r="E135" s="1">
-        <v>22024</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B136" s="1">
-        <v>25792</v>
-      </c>
-      <c r="C136" s="1">
-        <v>2499105</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0</v>
-      </c>
-      <c r="E136" s="1">
-        <v>25331</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B137" s="1">
-        <v>26092</v>
-      </c>
-      <c r="C137" s="1">
-        <v>2499651</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0</v>
-      </c>
-      <c r="E137" s="1">
-        <v>25349</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="1">
-        <v>4.81</v>
-      </c>
-      <c r="B138" s="1">
-        <v>10919</v>
-      </c>
-      <c r="C138" s="1">
-        <v>5999241</v>
-      </c>
-      <c r="D138" s="1">
-        <v>0</v>
-      </c>
-      <c r="E138" s="1">
-        <v>19437</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B139" s="1">
-        <v>25771</v>
-      </c>
-      <c r="C139" s="1">
-        <v>2499380</v>
-      </c>
-      <c r="D139" s="1">
-        <v>0</v>
-      </c>
-      <c r="E139" s="1">
-        <v>25365</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B140" s="1">
-        <v>25825</v>
-      </c>
-      <c r="C140" s="1">
-        <v>2499462</v>
-      </c>
-      <c r="D140" s="1">
-        <v>0</v>
-      </c>
-      <c r="E140" s="1">
-        <v>25338</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B141" s="1">
-        <v>26177</v>
-      </c>
-      <c r="C141" s="1">
-        <v>2499879</v>
-      </c>
-      <c r="D141" s="1">
-        <v>0</v>
-      </c>
-      <c r="E141" s="1">
-        <v>25305</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B142" s="1">
-        <v>25782</v>
-      </c>
-      <c r="C142" s="1">
-        <v>2499363</v>
-      </c>
-      <c r="D142" s="1">
-        <v>0</v>
-      </c>
-      <c r="E142" s="1">
-        <v>25343</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B143" s="1">
-        <v>10492</v>
-      </c>
-      <c r="C143" s="1">
-        <v>7997034</v>
-      </c>
-      <c r="D143" s="1">
-        <v>0</v>
-      </c>
-      <c r="E143" s="1">
-        <v>21975</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B144" s="1">
-        <v>18184</v>
-      </c>
-      <c r="C144" s="1">
-        <v>2499610</v>
-      </c>
-      <c r="D144" s="1">
-        <v>0</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1910</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B145" s="1">
-        <v>25694</v>
-      </c>
-      <c r="C145" s="1">
-        <v>2498969</v>
-      </c>
-      <c r="D145" s="1">
-        <v>0</v>
-      </c>
-      <c r="E145" s="1">
-        <v>25354</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B146" s="1">
-        <v>11815</v>
-      </c>
-      <c r="C146" s="1">
-        <v>7998316</v>
-      </c>
-      <c r="D146" s="1">
-        <v>0</v>
-      </c>
-      <c r="E146" s="1">
-        <v>21997</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B147" s="1">
-        <v>18033</v>
-      </c>
-      <c r="C147" s="1">
-        <v>2499398</v>
-      </c>
-      <c r="D147" s="1">
-        <v>0</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1897</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B148" s="1">
-        <v>10697</v>
-      </c>
-      <c r="C148" s="1">
-        <v>7998529</v>
-      </c>
-      <c r="D148" s="1">
-        <v>0</v>
-      </c>
-      <c r="E148" s="1">
-        <v>18170</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B149" s="1">
-        <v>10655</v>
-      </c>
-      <c r="C149" s="1">
-        <v>7998619</v>
-      </c>
-      <c r="D149" s="1">
-        <v>0</v>
-      </c>
-      <c r="E149" s="1">
-        <v>21936</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="1">
-        <v>4.811</v>
-      </c>
-      <c r="B150" s="1">
-        <v>10816</v>
-      </c>
-      <c r="C150" s="1">
-        <v>5997664</v>
-      </c>
-      <c r="D150" s="1">
-        <v>0</v>
-      </c>
-      <c r="E150" s="1">
-        <v>19481</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B151" s="1">
-        <v>26171</v>
-      </c>
-      <c r="C151" s="1">
-        <v>2499824</v>
-      </c>
-      <c r="D151" s="1">
-        <v>0</v>
-      </c>
-      <c r="E151" s="1">
-        <v>25326</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B152" s="1">
-        <v>10834</v>
-      </c>
-      <c r="C152" s="1">
-        <v>7993085</v>
-      </c>
-      <c r="D152" s="1">
-        <v>0</v>
-      </c>
-      <c r="E152" s="1">
-        <v>17928</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="1">
-        <v>4.879</v>
-      </c>
-      <c r="B153" s="1">
-        <v>14783</v>
-      </c>
-      <c r="C153" s="1">
-        <v>7854806</v>
-      </c>
-      <c r="D153" s="1">
-        <v>0</v>
-      </c>
-      <c r="E153" s="1">
-        <v>20593</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B154" s="1">
-        <v>11238</v>
-      </c>
-      <c r="C154" s="1">
-        <v>7857309</v>
-      </c>
-      <c r="D154" s="1">
-        <v>0</v>
-      </c>
-      <c r="E154" s="1">
-        <v>18658</v>
-      </c>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="1">
-        <v>4.887</v>
-      </c>
-      <c r="B155" s="1">
-        <v>16380</v>
-      </c>
-      <c r="C155" s="1">
-        <v>8000226</v>
-      </c>
-      <c r="D155" s="1">
-        <v>0</v>
-      </c>
-      <c r="E155" s="1">
-        <v>21997</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="1">
-        <v>4.889</v>
-      </c>
-      <c r="B156" s="1">
-        <v>11641</v>
-      </c>
-      <c r="C156" s="1">
-        <v>7999903</v>
-      </c>
-      <c r="D156" s="1">
-        <v>0</v>
-      </c>
-      <c r="E156" s="1">
-        <v>18035</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="1">
-        <v>4.941</v>
-      </c>
-      <c r="B157" s="1">
-        <v>13003</v>
-      </c>
-      <c r="C157" s="1">
-        <v>8023388</v>
-      </c>
-      <c r="D157" s="1">
-        <v>0</v>
-      </c>
-      <c r="E157" s="1">
-        <v>23431</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B158" s="1">
-        <v>26127</v>
-      </c>
-      <c r="C158" s="1">
-        <v>2499433</v>
-      </c>
-      <c r="D158" s="1">
-        <v>0</v>
-      </c>
-      <c r="E158" s="1">
-        <v>25301</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B159" s="1">
-        <v>13271</v>
-      </c>
-      <c r="C159" s="1">
-        <v>7999437</v>
-      </c>
-      <c r="D159" s="1">
-        <v>0</v>
-      </c>
-      <c r="E159" s="1">
-        <v>22064</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="1">
-        <v>4.857</v>
-      </c>
-      <c r="B160" s="1">
-        <v>13579</v>
-      </c>
-      <c r="C160" s="1">
-        <v>7504358</v>
-      </c>
-      <c r="D160" s="1">
-        <v>0</v>
-      </c>
-      <c r="E160" s="1">
-        <v>20573</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="1">
-        <v>4.845</v>
-      </c>
-      <c r="B161" s="1">
-        <v>9558</v>
-      </c>
-      <c r="C161" s="1">
-        <v>3355273</v>
-      </c>
-      <c r="D161" s="1">
-        <v>0</v>
-      </c>
-      <c r="E161" s="1">
-        <v>16711</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="1">
-        <v>4.881</v>
-      </c>
-      <c r="B162" s="1">
-        <v>10717</v>
-      </c>
-      <c r="C162" s="1">
-        <v>7937541</v>
-      </c>
-      <c r="D162" s="1">
-        <v>0</v>
-      </c>
-      <c r="E162" s="1">
-        <v>22205</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B163" s="1">
-        <v>11034</v>
-      </c>
-      <c r="C163" s="1">
-        <v>8000186</v>
-      </c>
-      <c r="D163" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="E163" s="1">
-        <v>21762</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="1">
-        <v>4.893</v>
-      </c>
-      <c r="B164" s="1">
-        <v>14902</v>
-      </c>
-      <c r="C164" s="1">
-        <v>8001846</v>
-      </c>
-      <c r="D164" s="1">
-        <v>0</v>
-      </c>
-      <c r="E164" s="1">
-        <v>20370</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="1">
-        <v>4.889</v>
-      </c>
-      <c r="B165" s="1">
-        <v>10967</v>
-      </c>
-      <c r="C165" s="1">
-        <v>8000187</v>
-      </c>
-      <c r="D165" s="1">
-        <v>0</v>
-      </c>
-      <c r="E165" s="1">
-        <v>21057</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="1">
-        <v>4.508</v>
-      </c>
-      <c r="B166" s="1">
-        <v>35948</v>
-      </c>
-      <c r="C166" s="1">
-        <v>2455200</v>
-      </c>
-      <c r="D166" s="1">
-        <v>0</v>
-      </c>
-      <c r="E166" s="1">
-        <v>25298</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B167" s="1">
-        <v>10875</v>
-      </c>
-      <c r="C167" s="1">
-        <v>7999297</v>
-      </c>
-      <c r="D167" s="1">
-        <v>0</v>
-      </c>
-      <c r="E167" s="1">
-        <v>18184</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="1">
-        <v>4.885</v>
-      </c>
-      <c r="B168" s="1">
-        <v>14854</v>
-      </c>
-      <c r="C168" s="1">
-        <v>7962189</v>
-      </c>
-      <c r="D168" s="1">
-        <v>0</v>
-      </c>
-      <c r="E168" s="1">
-        <v>21699</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="1">
-        <v>4.522</v>
-      </c>
-      <c r="B169" s="1">
-        <v>32049</v>
-      </c>
-      <c r="C169" s="1">
-        <v>2467112</v>
-      </c>
-      <c r="D169" s="1">
-        <v>0</v>
-      </c>
-      <c r="E169" s="1">
-        <v>25350</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B170" s="1">
-        <v>10818</v>
-      </c>
-      <c r="C170" s="1">
-        <v>7999879</v>
-      </c>
-      <c r="D170" s="1">
-        <v>0</v>
-      </c>
-      <c r="E170" s="1">
-        <v>18149</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="1">
-        <v>4.88</v>
-      </c>
-      <c r="B171" s="1">
-        <v>11073</v>
-      </c>
-      <c r="C171" s="1">
-        <v>7998247</v>
-      </c>
-      <c r="D171" s="1">
-        <v>0</v>
-      </c>
-      <c r="E171" s="1">
-        <v>17936</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="1">
-        <v>4.554</v>
-      </c>
-      <c r="B172" s="1">
-        <v>25768</v>
-      </c>
-      <c r="C172" s="1">
-        <v>2499571</v>
-      </c>
-      <c r="D172" s="1">
-        <v>0</v>
-      </c>
-      <c r="E172" s="1">
-        <v>25326</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B173" s="1">
-        <v>14177</v>
-      </c>
-      <c r="C173" s="1">
-        <v>7999763</v>
-      </c>
-      <c r="D173" s="1">
-        <v>0</v>
-      </c>
-      <c r="E173" s="1">
-        <v>21442</v>
-      </c>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="1">
-        <v>4.883</v>
-      </c>
-      <c r="B174" s="1">
-        <v>14767</v>
-      </c>
-      <c r="C174" s="1">
-        <v>7988061</v>
-      </c>
-      <c r="D174" s="1">
-        <v>0</v>
-      </c>
-      <c r="E174" s="1">
-        <v>21667</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="1">
-        <v>4.885</v>
-      </c>
-      <c r="B175" s="1">
-        <v>18503</v>
-      </c>
-      <c r="C175" s="1">
-        <v>8008228</v>
-      </c>
-      <c r="D175" s="1">
-        <v>0</v>
-      </c>
-      <c r="E175" s="1">
-        <v>21960</v>
-      </c>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B176" s="1">
-        <v>12161</v>
-      </c>
-      <c r="C176" s="1">
-        <v>7997704</v>
-      </c>
-      <c r="D176" s="1">
-        <v>0</v>
-      </c>
-      <c r="E176" s="1">
-        <v>22053</v>
-      </c>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="1">
-        <v>4.873</v>
-      </c>
-      <c r="B177" s="1">
-        <v>10584</v>
-      </c>
-      <c r="C177" s="1">
-        <v>7262692</v>
-      </c>
-      <c r="D177" s="1">
-        <v>0.015</v>
-      </c>
-      <c r="E177" s="1">
-        <v>23288</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="1">
-        <v>4.676</v>
-      </c>
-      <c r="B178" s="1">
-        <v>7292</v>
-      </c>
-      <c r="C178" s="1">
-        <v>3982215</v>
-      </c>
-      <c r="D178" s="1">
-        <v>0.022</v>
-      </c>
-      <c r="E178" s="1">
-        <v>20819</v>
-      </c>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="1">
-        <v>4.595</v>
-      </c>
-      <c r="B179" s="1">
-        <v>27716</v>
-      </c>
-      <c r="C179" s="1">
-        <v>1931888</v>
-      </c>
-      <c r="D179" s="1">
-        <v>0</v>
-      </c>
-      <c r="E179" s="1">
-        <v>25717</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="1">
-        <v>4.737</v>
-      </c>
-      <c r="B180" s="1">
-        <v>13189</v>
-      </c>
-      <c r="C180" s="1">
-        <v>1252831</v>
-      </c>
-      <c r="D180" s="1">
-        <v>0</v>
-      </c>
-      <c r="E180" s="1">
-        <v>12603</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="1">
-        <v>4.595</v>
-      </c>
-      <c r="B181" s="1">
-        <v>28918</v>
-      </c>
-      <c r="C181" s="1">
-        <v>275833</v>
-      </c>
-      <c r="D181" s="1">
-        <v>0</v>
-      </c>
-      <c r="E181" s="1">
-        <v>22967</v>
-      </c>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="1">
-        <v>4.534</v>
-      </c>
-      <c r="B182" s="1">
-        <v>19466</v>
-      </c>
-      <c r="C182" s="1">
-        <v>1759228</v>
-      </c>
-      <c r="D182" s="1">
-        <v>0</v>
-      </c>
-      <c r="E182" s="1">
-        <v>25531</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B183" s="1">
-        <v>10886</v>
-      </c>
-      <c r="C183" s="1">
-        <v>7994004</v>
-      </c>
-      <c r="D183" s="1">
-        <v>0.001</v>
-      </c>
-      <c r="E183" s="1">
-        <v>21465</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="1">
-        <v>4.901</v>
-      </c>
-      <c r="B184" s="1">
-        <v>14425</v>
-      </c>
-      <c r="C184" s="1">
-        <v>8000227</v>
-      </c>
-      <c r="D184" s="1">
-        <v>0</v>
-      </c>
-      <c r="E184" s="1">
-        <v>21345</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="1">
-        <v>4.898</v>
-      </c>
-      <c r="B185" s="1">
-        <v>10964</v>
-      </c>
-      <c r="C185" s="1">
-        <v>8001280</v>
-      </c>
-      <c r="D185" s="1">
-        <v>0</v>
-      </c>
-      <c r="E185" s="1">
-        <v>24738</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="1">
-        <v>4.811</v>
-      </c>
-      <c r="B186" s="1">
-        <v>17275</v>
-      </c>
-      <c r="C186" s="1">
-        <v>8001280</v>
-      </c>
-      <c r="D186" s="1">
-        <v>0</v>
-      </c>
-      <c r="E186" s="1">
-        <v>19522</v>
-      </c>
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="1">
-        <v>4.857</v>
-      </c>
-      <c r="B187" s="1">
-        <v>22943</v>
-      </c>
-      <c r="C187" s="1">
-        <v>7998121</v>
-      </c>
-      <c r="D187" s="1">
-        <v>0</v>
-      </c>
-      <c r="E187" s="1">
-        <v>22827</v>
-      </c>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="1">
-        <v>4.85</v>
-      </c>
-      <c r="B188" s="1">
-        <v>20705</v>
-      </c>
-      <c r="C188" s="1">
-        <v>8002332</v>
-      </c>
-      <c r="D188" s="1">
-        <v>0</v>
-      </c>
-      <c r="E188" s="1">
-        <v>17304</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="B189" s="1">
-        <v>13803</v>
-      </c>
-      <c r="C189" s="1">
-        <v>7998121</v>
-      </c>
-      <c r="D189" s="1">
-        <v>0</v>
-      </c>
-      <c r="E189" s="1">
-        <v>23031</v>
-      </c>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="1">
-        <v>4.917</v>
-      </c>
-      <c r="B190" s="1">
-        <v>14106</v>
-      </c>
-      <c r="C190" s="1">
-        <v>8000227</v>
-      </c>
-      <c r="D190" s="1">
-        <v>0</v>
-      </c>
-      <c r="E190" s="1">
-        <v>19253</v>
-      </c>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="1">
-        <v>4.804</v>
-      </c>
-      <c r="B191" s="1">
-        <v>19164</v>
-      </c>
-      <c r="C191" s="1">
-        <v>8000227</v>
-      </c>
-      <c r="D191" s="1">
-        <v>0</v>
-      </c>
-      <c r="E191" s="1">
-        <v>22791</v>
-      </c>
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="1">
-        <v>4.796</v>
-      </c>
-      <c r="B192" s="1">
-        <v>12817</v>
-      </c>
-      <c r="C192" s="1">
-        <v>8001280</v>
-      </c>
-      <c r="D192" s="1">
-        <v>0</v>
-      </c>
-      <c r="E192" s="1">
-        <v>20026</v>
-      </c>
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="1">
-        <v>4.841</v>
-      </c>
-      <c r="B193" s="1">
-        <v>12178</v>
-      </c>
-      <c r="C193" s="1">
-        <v>8001280</v>
-      </c>
-      <c r="D193" s="1">
-        <v>0</v>
-      </c>
-      <c r="E193" s="1">
-        <v>19336</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="B194" s="1">
-        <v>16208</v>
-      </c>
-      <c r="C194" s="1">
-        <v>8000227</v>
-      </c>
-      <c r="D194" s="1">
-        <v>0</v>
-      </c>
-      <c r="E194" s="1">
-        <v>15967</v>
-      </c>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="B195" s="1">
-        <v>12940</v>
-      </c>
-      <c r="C195" s="1">
-        <v>7983382</v>
-      </c>
-      <c r="D195" s="1">
-        <v>0</v>
-      </c>
-      <c r="E195" s="1">
-        <v>17626</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="1">
-        <v>4.931</v>
-      </c>
-      <c r="B196" s="1">
-        <v>17538</v>
-      </c>
-      <c r="C196" s="1">
-        <v>8016019</v>
-      </c>
-      <c r="D196" s="1">
-        <v>0</v>
-      </c>
-      <c r="E196" s="1">
-        <v>23254</v>
-      </c>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B197" s="1">
-        <v>10613</v>
-      </c>
-      <c r="C197" s="1">
-        <v>8002332</v>
-      </c>
-      <c r="D197" s="1">
-        <v>0</v>
-      </c>
-      <c r="E197" s="1">
-        <v>19297</v>
-      </c>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="1">
-        <v>4.833</v>
-      </c>
-      <c r="B198" s="1">
-        <v>17010</v>
-      </c>
-      <c r="C198" s="1">
-        <v>7998121</v>
-      </c>
-      <c r="D198" s="1">
-        <v>0</v>
-      </c>
-      <c r="E198" s="1">
-        <v>19714</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="1">
-        <v>4.882</v>
-      </c>
-      <c r="B199" s="1">
-        <v>10599</v>
-      </c>
-      <c r="C199" s="1">
-        <v>7997837</v>
-      </c>
-      <c r="D199" s="1">
-        <v>0</v>
-      </c>
-      <c r="E199" s="1">
-        <v>18080</v>
-      </c>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="1">
-        <v>4.555</v>
-      </c>
-      <c r="B200" s="1">
-        <v>26071</v>
-      </c>
-      <c r="C200" s="1">
-        <v>2494294</v>
-      </c>
-      <c r="D200" s="1">
-        <v>0</v>
-      </c>
-      <c r="E200" s="1">
-        <v>25348</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1"/>
